--- a/Data/data.xlsx
+++ b/Data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>用例ID</t>
   </si>
   <si>
-    <t>类型</t>
+    <t>用例名</t>
   </si>
   <si>
     <t>key</t>
@@ -33,7 +33,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>fangshi</t>
+    <t>请求方式</t>
   </si>
   <si>
     <t>期望</t>
@@ -42,7 +42,7 @@
     <t>结果</t>
   </si>
   <si>
-    <t>POST</t>
+    <t>图灵api接口</t>
   </si>
   <si>
     <t>aaaa</t>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>http://www.tuling123.com/openapi/api</t>
+  </si>
+  <si>
+    <t>POST</t>
   </si>
   <si>
     <t>dfeb1cc8125943d29764a2f2f5c33739</t>
@@ -66,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -96,6 +99,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -103,9 +136,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,51 +180,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,40 +204,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,121 +236,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,6 +386,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -371,49 +410,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,6 +427,51 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -451,65 +499,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,6 +518,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -532,10 +535,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,16 +547,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,112 +568,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -737,11 +740,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1033,14 +1031,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="32.125" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
@@ -1089,10 +1088,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>40001</v>
+        <v>40002</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:7">
@@ -1103,16 +1102,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>40002</v>
+        <v>40008</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1126,7 +1125,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>40007</v>
@@ -1143,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>40007</v>
@@ -1166,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>40001</v>
@@ -1180,13 +1179,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>40002</v>
@@ -1203,10 +1202,10 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>40007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1220,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>40007</v>
@@ -1243,7 +1242,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G10">
         <v>40001</v>
@@ -1257,13 +1256,13 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>40002</v>
@@ -1280,10 +1279,10 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>40007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1297,9 +1296,240 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G13">
+        <v>40007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="15" ht="27" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>40008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>40007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>40007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>40007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="23" ht="27" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>40002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25">
         <v>40007</v>
       </c>
     </row>
@@ -1311,6 +1541,12 @@
     <hyperlink ref="E7" r:id="rId2" display="http://www.tuling123.com/openapi/api&#10;" tooltip="http://www.tuling123.com/openapi/api&#10;"/>
     <hyperlink ref="E10" r:id="rId1" display="http://www.tuling123.com/openapi/api"/>
     <hyperlink ref="E11" r:id="rId2" display="http://www.tuling123.com/openapi/api&#10;" tooltip="http://www.tuling123.com/openapi/api&#10;"/>
+    <hyperlink ref="E14" r:id="rId1" display="http://www.tuling123.com/openapi/api"/>
+    <hyperlink ref="E15" r:id="rId2" display="http://www.tuling123.com/openapi/api&#10;" tooltip="http://www.tuling123.com/openapi/api&#10;"/>
+    <hyperlink ref="E18" r:id="rId1" display="http://www.tuling123.com/openapi/api"/>
+    <hyperlink ref="E19" r:id="rId2" display="http://www.tuling123.com/openapi/api&#10;" tooltip="http://www.tuling123.com/openapi/api&#10;"/>
+    <hyperlink ref="E22" r:id="rId1" display="http://www.tuling123.com/openapi/api"/>
+    <hyperlink ref="E23" r:id="rId2" display="http://www.tuling123.com/openapi/api&#10;" tooltip="http://www.tuling123.com/openapi/api&#10;"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
